--- a/data/Data KHM010XX.xlsx
+++ b/data/Data KHM010XX.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -139,12 +139,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>No data</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2337,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2515,615 +2509,525 @@
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="8">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="E4" s="8">
         <v>0.5</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="R4" s="9"/>
+      <c r="F4" s="10">
+        <v>3.37779e-10</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-9.42072e-11</v>
+      </c>
+      <c r="H4" s="10">
+        <v>9.62594e-11</v>
+      </c>
+      <c r="I4" s="10">
+        <v>-9.33973e-11</v>
+      </c>
+      <c r="J4" s="10">
+        <v>-3.37383e-10</v>
+      </c>
+      <c r="K4" s="10">
+        <v>9.0145e-11</v>
+      </c>
+      <c r="L4" s="10">
+        <v>-9.17394e-11</v>
+      </c>
+      <c r="M4" s="10">
+        <v>8.88109e-11</v>
+      </c>
+      <c r="N4" s="10">
+        <v>2.41519e-10</v>
+      </c>
+      <c r="O4" s="10">
+        <v>2.43581e-10</v>
+      </c>
+      <c r="P4" s="8">
+        <v>34.168</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>2.59131</v>
+      </c>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="8">
-        <v>770</v>
+        <v>700</v>
       </c>
       <c r="E5" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="10">
-        <v>3.37779e-10</v>
+        <v>3.01083e-10</v>
       </c>
       <c r="G5" s="10">
-        <v>-9.42072e-11</v>
+        <v>-8.43717e-11</v>
       </c>
       <c r="H5" s="10">
-        <v>9.62594e-11</v>
+        <v>8.59309e-11</v>
       </c>
       <c r="I5" s="10">
-        <v>-9.33973e-11</v>
+        <v>-8.350189999999999e-11</v>
       </c>
       <c r="J5" s="10">
-        <v>-3.37383e-10</v>
+        <v>-3.01785e-10</v>
       </c>
       <c r="K5" s="10">
-        <v>9.0145e-11</v>
+        <v>8.2155e-11</v>
       </c>
       <c r="L5" s="10">
-        <v>-9.17394e-11</v>
+        <v>-8.24689e-11</v>
       </c>
       <c r="M5" s="10">
-        <v>8.88109e-11</v>
+        <v>8.171490000000001e-11</v>
       </c>
       <c r="N5" s="10">
-        <v>2.41519e-10</v>
+        <v>2.15152e-10</v>
       </c>
       <c r="O5" s="10">
-        <v>2.43581e-10</v>
+        <v>2.17234e-10</v>
       </c>
       <c r="P5" s="8">
-        <v>34.168</v>
+        <v>30.4378</v>
       </c>
       <c r="Q5" s="8">
-        <v>2.59131</v>
+        <v>2.57998</v>
       </c>
       <c r="R5" s="10"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="8">
-        <v>700</v>
+        <v>738</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="10">
-        <v>3.01083e-10</v>
+        <v>4.02756e-10</v>
       </c>
       <c r="G6" s="10">
-        <v>-8.43717e-11</v>
+        <v>-9.73626e-11</v>
       </c>
       <c r="H6" s="10">
-        <v>8.59309e-11</v>
+        <v>9.91519e-11</v>
       </c>
       <c r="I6" s="10">
-        <v>-8.350189999999999e-11</v>
+        <v>-9.677430000000001e-11</v>
       </c>
       <c r="J6" s="10">
-        <v>-3.01785e-10</v>
+        <v>-4.00443e-10</v>
       </c>
       <c r="K6" s="10">
-        <v>8.2155e-11</v>
+        <v>9.39661e-11</v>
       </c>
       <c r="L6" s="10">
-        <v>-8.24689e-11</v>
+        <v>-9.32856e-11</v>
       </c>
       <c r="M6" s="10">
-        <v>8.171490000000001e-11</v>
+        <v>9.17568e-11</v>
       </c>
       <c r="N6" s="10">
-        <v>2.15152e-10</v>
+        <v>3.03604e-10</v>
       </c>
       <c r="O6" s="10">
-        <v>2.17234e-10</v>
+        <v>3.05381e-10</v>
       </c>
       <c r="P6" s="8">
-        <v>30.4378</v>
+        <v>42.9512</v>
       </c>
       <c r="Q6" s="8">
-        <v>2.57998</v>
+        <v>3.17382</v>
       </c>
       <c r="R6" s="10"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="8">
-        <v>738</v>
+        <v>650</v>
       </c>
       <c r="E7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="10">
-        <v>4.02756e-10</v>
+        <v>7.20065e-11</v>
       </c>
       <c r="G7" s="10">
-        <v>-9.73626e-11</v>
+        <v>-6.40603e-11</v>
       </c>
       <c r="H7" s="10">
-        <v>9.91519e-11</v>
+        <v>6.43551e-11</v>
       </c>
       <c r="I7" s="10">
-        <v>-9.677430000000001e-11</v>
+        <v>-6.32562e-11</v>
       </c>
       <c r="J7" s="10">
-        <v>-4.00443e-10</v>
+        <v>-7.10673e-11</v>
       </c>
       <c r="K7" s="10">
-        <v>9.39661e-11</v>
+        <v>6.33389e-11</v>
       </c>
       <c r="L7" s="10">
-        <v>-9.32856e-11</v>
+        <v>-6.209049999999999e-11</v>
       </c>
       <c r="M7" s="10">
-        <v>9.17568e-11</v>
+        <v>6.25637e-11</v>
       </c>
       <c r="N7" s="10">
-        <v>3.03604e-10</v>
+        <v>7.651399999999999e-12</v>
       </c>
       <c r="O7" s="10">
-        <v>3.05381e-10</v>
+        <v>8.314109999999999e-12</v>
       </c>
       <c r="P7" s="8">
-        <v>42.9512</v>
+        <v>1.08245</v>
       </c>
       <c r="Q7" s="8">
-        <v>3.17382</v>
+        <v>0.1315</v>
       </c>
       <c r="R7" s="10"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8">
         <v>670</v>
       </c>
       <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="R8" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>9.32922e-11</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-6.51361e-11</v>
+      </c>
+      <c r="H8" s="10">
+        <v>6.45833e-11</v>
+      </c>
+      <c r="I8" s="10">
+        <v>-6.596570000000001e-11</v>
+      </c>
+      <c r="J8" s="10">
+        <v>-9.25812e-11</v>
+      </c>
+      <c r="K8" s="10">
+        <v>6.416909999999999e-11</v>
+      </c>
+      <c r="L8" s="10">
+        <v>-6.35025e-11</v>
+      </c>
+      <c r="M8" s="10">
+        <v>6.41881e-11</v>
+      </c>
+      <c r="N8" s="10">
+        <v>2.87089e-11</v>
+      </c>
+      <c r="O8" s="10">
+        <v>2.88938e-11</v>
+      </c>
+      <c r="P8" s="8">
+        <v>4.06148</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.45116</v>
+      </c>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E9" s="8">
         <v>2</v>
       </c>
       <c r="F9" s="10">
-        <v>7.20065e-11</v>
+        <v>2.37061e-09</v>
       </c>
       <c r="G9" s="10">
-        <v>-6.40603e-11</v>
+        <v>-7.69795e-10</v>
       </c>
       <c r="H9" s="10">
-        <v>6.43551e-11</v>
+        <v>7.79026e-10</v>
       </c>
       <c r="I9" s="10">
-        <v>-6.32562e-11</v>
+        <v>-7.65306e-10</v>
       </c>
       <c r="J9" s="10">
-        <v>-7.10673e-11</v>
+        <v>-2.36409e-09</v>
       </c>
       <c r="K9" s="10">
-        <v>6.33389e-11</v>
+        <v>7.24425e-10</v>
       </c>
       <c r="L9" s="10">
-        <v>-6.209049999999999e-11</v>
+        <v>-7.35283e-10</v>
       </c>
       <c r="M9" s="10">
-        <v>6.25637e-11</v>
+        <v>7.221760000000001e-10</v>
       </c>
       <c r="N9" s="10">
-        <v>7.651399999999999e-12</v>
+        <v>1.59158e-09</v>
       </c>
       <c r="O9" s="10">
-        <v>8.314109999999999e-12</v>
+        <v>1.6102e-09</v>
       </c>
       <c r="P9" s="8">
-        <v>1.08245</v>
+        <v>20.2647</v>
       </c>
       <c r="Q9" s="8">
-        <v>0.1315</v>
+        <v>2.12664</v>
       </c>
       <c r="R9" s="10"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="8">
-        <v>670</v>
+        <v>716</v>
       </c>
       <c r="E10" s="8">
         <v>2</v>
       </c>
       <c r="F10" s="10">
-        <v>9.32922e-11</v>
+        <v>4.3363e-10</v>
       </c>
       <c r="G10" s="10">
-        <v>-6.51361e-11</v>
+        <v>-9.98666e-11</v>
       </c>
       <c r="H10" s="10">
-        <v>6.45833e-11</v>
+        <v>1.00514e-10</v>
       </c>
       <c r="I10" s="10">
-        <v>-6.596570000000001e-11</v>
+        <v>-9.78285e-11</v>
       </c>
       <c r="J10" s="10">
-        <v>-9.25812e-11</v>
+        <v>-4.31745e-10</v>
       </c>
       <c r="K10" s="10">
-        <v>6.416909999999999e-11</v>
+        <v>9.21906e-11</v>
       </c>
       <c r="L10" s="10">
-        <v>-6.35025e-11</v>
+        <v>-9.315980000000001e-11</v>
       </c>
       <c r="M10" s="10">
-        <v>6.41881e-11</v>
+        <v>9.14405e-11</v>
       </c>
       <c r="N10" s="10">
-        <v>2.87089e-11</v>
+        <v>3.33116e-10</v>
       </c>
       <c r="O10" s="10">
-        <v>2.88938e-11</v>
+        <v>3.35851e-10</v>
       </c>
       <c r="P10" s="8">
-        <v>4.06148</v>
+        <v>47.1263</v>
       </c>
       <c r="Q10" s="8">
-        <v>0.45116</v>
+        <v>3.46821</v>
       </c>
       <c r="R10" s="10"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" s="8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="8">
         <v>700</v>
       </c>
       <c r="E11" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="10">
-        <v>2.37061e-09</v>
+        <v>2.01212e-10</v>
       </c>
       <c r="G11" s="10">
-        <v>-7.69795e-10</v>
+        <v>-4.36325e-11</v>
       </c>
       <c r="H11" s="10">
-        <v>7.79026e-10</v>
+        <v>4.48124e-11</v>
       </c>
       <c r="I11" s="10">
-        <v>-7.65306e-10</v>
+        <v>-4.31338e-11</v>
       </c>
       <c r="J11" s="10">
-        <v>-2.36409e-09</v>
+        <v>-1.99619e-10</v>
       </c>
       <c r="K11" s="10">
-        <v>7.24425e-10</v>
+        <v>4.13613e-11</v>
       </c>
       <c r="L11" s="10">
-        <v>-7.35283e-10</v>
+        <v>-4.07283e-11</v>
       </c>
       <c r="M11" s="10">
-        <v>7.221760000000001e-10</v>
+        <v>4.07942e-11</v>
       </c>
       <c r="N11" s="10">
-        <v>1.59158e-09</v>
+        <v>1.56399e-10</v>
       </c>
       <c r="O11" s="10">
-        <v>1.6102e-09</v>
+        <v>1.57645e-10</v>
       </c>
       <c r="P11" s="8">
-        <v>20.2647</v>
+        <v>49.7834</v>
       </c>
       <c r="Q11" s="8">
-        <v>2.12664</v>
+        <v>3.68585</v>
       </c>
       <c r="R11" s="10"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="8">
         <v>716</v>
       </c>
       <c r="E12" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12" s="10">
-        <v>4.3363e-10</v>
+        <v>4.23377e-10</v>
       </c>
       <c r="G12" s="10">
-        <v>-9.98666e-11</v>
+        <v>-9.67504e-11</v>
       </c>
       <c r="H12" s="10">
-        <v>1.00514e-10</v>
+        <v>1.00098e-10</v>
       </c>
       <c r="I12" s="10">
-        <v>-9.78285e-11</v>
+        <v>-9.54943e-11</v>
       </c>
       <c r="J12" s="10">
-        <v>-4.31745e-10</v>
+        <v>-4.16303e-10</v>
       </c>
       <c r="K12" s="10">
-        <v>9.21906e-11</v>
+        <v>9.04167e-11</v>
       </c>
       <c r="L12" s="10">
-        <v>-9.315980000000001e-11</v>
+        <v>-8.87789e-11</v>
       </c>
       <c r="M12" s="10">
-        <v>9.14405e-11</v>
+        <v>9.11161e-11</v>
       </c>
       <c r="N12" s="10">
-        <v>3.33116e-10</v>
+        <v>3.23279e-10</v>
       </c>
       <c r="O12" s="10">
-        <v>3.35851e-10</v>
+        <v>3.25402e-10</v>
       </c>
       <c r="P12" s="8">
-        <v>47.1263</v>
+        <v>45.7347</v>
       </c>
       <c r="Q12" s="8">
-        <v>3.46821</v>
+        <v>3.44566</v>
       </c>
       <c r="R12" s="10"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C13" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="C13" t="s" s="7">
+        <v>37</v>
+      </c>
       <c r="D13" s="8">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="E13" s="8">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8">
-        <v>700</v>
-      </c>
-      <c r="E14" s="8">
         <v>5</v>
       </c>
-      <c r="F14" s="10">
-        <v>2.01212e-10</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-4.36325e-11</v>
-      </c>
-      <c r="H14" s="10">
-        <v>4.48124e-11</v>
-      </c>
-      <c r="I14" s="10">
-        <v>-4.31338e-11</v>
-      </c>
-      <c r="J14" s="10">
-        <v>-1.99619e-10</v>
-      </c>
-      <c r="K14" s="10">
-        <v>4.13613e-11</v>
-      </c>
-      <c r="L14" s="10">
-        <v>-4.07283e-11</v>
-      </c>
-      <c r="M14" s="10">
-        <v>4.07942e-11</v>
-      </c>
-      <c r="N14" s="10">
-        <v>1.56399e-10</v>
-      </c>
-      <c r="O14" s="10">
-        <v>1.57645e-10</v>
-      </c>
-      <c r="P14" s="8">
-        <v>49.7834</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>3.68585</v>
-      </c>
-      <c r="R14" s="10"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8">
-        <v>716</v>
-      </c>
-      <c r="E15" s="8">
-        <v>5</v>
-      </c>
-      <c r="F15" s="10">
-        <v>4.23377e-10</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-9.67504e-11</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1.00098e-10</v>
-      </c>
-      <c r="I15" s="10">
-        <v>-9.54943e-11</v>
-      </c>
-      <c r="J15" s="10">
-        <v>-4.16303e-10</v>
-      </c>
-      <c r="K15" s="10">
-        <v>9.04167e-11</v>
-      </c>
-      <c r="L15" s="10">
-        <v>-8.87789e-11</v>
-      </c>
-      <c r="M15" s="10">
-        <v>9.11161e-11</v>
-      </c>
-      <c r="N15" s="10">
-        <v>3.23279e-10</v>
-      </c>
-      <c r="O15" s="10">
-        <v>3.25402e-10</v>
-      </c>
-      <c r="P15" s="8">
-        <v>45.7347</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>3.44566</v>
-      </c>
-      <c r="R15" s="10"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="D16" s="8">
-        <v>670</v>
-      </c>
-      <c r="E16" s="8">
-        <v>5</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="F13" s="10">
         <v>2.99278e-10</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G13" s="10">
         <v>-8.38521e-11</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H13" s="10">
         <v>8.40676e-11</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I13" s="10">
         <v>-8.327289999999999e-11</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J13" s="10">
         <v>-2.99327e-10</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K13" s="10">
         <v>7.7088e-11</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L13" s="10">
         <v>-7.98641e-11</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M13" s="10">
         <v>7.74211e-11</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N13" s="10">
         <v>2.1521e-10</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O13" s="10">
         <v>2.17336e-10</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P13" s="8">
         <v>30.446</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q13" s="8">
         <v>2.65155</v>
       </c>
-      <c r="R16" s="10"/>
+      <c r="R13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
